--- a/fastqFiles/fastq_1272.xlsx
+++ b/fastqFiles/fastq_1272.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF6DC-D2F2-9F4A-A102-E083B9552EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037309BC-3D71-2A4F-9637-60767BD6F72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
   <si>
     <t>libraryDate</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B29 E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -536,7 +539,7 @@
         <v>1272</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -556,7 +559,7 @@
         <v>1272</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -576,7 +579,7 @@
         <v>1272</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -596,7 +599,7 @@
         <v>1272</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -616,7 +619,7 @@
         <v>1272</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -636,7 +639,7 @@
         <v>1272</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -656,7 +659,7 @@
         <v>1272</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -676,7 +679,7 @@
         <v>1272</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -696,7 +699,7 @@
         <v>1272</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -716,7 +719,7 @@
         <v>1272</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -736,7 +739,7 @@
         <v>1272</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -756,7 +759,7 @@
         <v>1272</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -776,7 +779,7 @@
         <v>1272</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -796,7 +799,7 @@
         <v>1272</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -816,7 +819,7 @@
         <v>1272</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -836,7 +839,7 @@
         <v>1272</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -856,7 +859,7 @@
         <v>1272</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -876,7 +879,7 @@
         <v>1272</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -896,7 +899,7 @@
         <v>1272</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -916,7 +919,7 @@
         <v>1272</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -936,7 +939,7 @@
         <v>1272</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -956,7 +959,7 @@
         <v>1272</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -976,7 +979,7 @@
         <v>1272</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -996,7 +999,7 @@
         <v>1272</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -1016,7 +1019,7 @@
         <v>1272</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -1036,7 +1039,7 @@
         <v>1272</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -1056,7 +1059,7 @@
         <v>1272</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -1076,7 +1079,7 @@
         <v>1272</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>

--- a/fastqFiles/fastq_1272.xlsx
+++ b/fastqFiles/fastq_1272.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
